--- a/data/trans_camb/P15_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15_2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -642,37 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,3</t>
         </is>
       </c>
     </row>
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,7</t>
+          <t>0,0; 16,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 2,24</t>
+          <t>-4,06; 6,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,97</t>
+          <t>-10,16; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,14</t>
+          <t>-7,15; 3,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,15</t>
+          <t>-2,31; 3,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,98</t>
+          <t>-5,81; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 4,1</t>
+          <t>-2,3; 6,04</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,37%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,75%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,83%</t>
+          <t>-13,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,43%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>131,95%</t>
+          <t>114,11%</t>
         </is>
       </c>
     </row>
@@ -848,12 +848,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,44</t>
+          <t>0,0; 10,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,44</t>
+          <t>0,0; 4,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -959,37 +959,37 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1079,27 +1079,27 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,6</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 4,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,23</t>
+          <t>0,0; 5,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 3,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1501,42 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>1,5</t>
         </is>
       </c>
     </row>
@@ -1554,42 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,77</t>
+          <t>0,0; 6,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 1,64</t>
+          <t>0,0; 9,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,56</t>
+          <t>0,0; 5,17</t>
         </is>
       </c>
     </row>
@@ -1607,42 +1607,42 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-35,21%</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,64</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,27</t>
+          <t>0,0; 12,3</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 6,9</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,48</t>
+          <t>-0,54; 1,27</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,81</t>
+          <t>-0,86; 0,49</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,69</t>
+          <t>-0,27; 2,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,45</t>
+          <t>-0,15; 1,02</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 0,96</t>
+          <t>-0,44; 0,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 0,83</t>
+          <t>-0,04; 1,54</t>
         </is>
       </c>
     </row>
@@ -2039,42 +2039,42 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-19,06%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>-8,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>217,6%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>206,23%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>214,98%</t>
+          <t>-9,93%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>136,14%</t>
+          <t>447,01%</t>
         </is>
       </c>
     </row>
@@ -2122,12 +2122,19 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-68,47; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
